--- a/Lab8/Checklist.xlsx
+++ b/Lab8/Checklist.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Linden/repos/UW_Group/2017_Win/EE474/Lab8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\myRepo\EE474\Lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -194,6 +194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,12 +468,12 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -481,10 +484,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -492,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -500,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -511,27 +514,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -539,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -547,12 +550,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -560,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -568,31 +571,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -603,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -614,7 +617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>3</v>
       </c>
@@ -622,10 +625,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>PRODUCT(SUM(A3:A23),3)</f>
         <v>9</v>

--- a/Lab8/Checklist.xlsx
+++ b/Lab8/Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\myRepo\EE474\Lab8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\repos\EE474\Lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -488,6 +488,9 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -496,6 +499,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -515,11 +521,17 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -535,6 +547,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -543,6 +558,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -556,6 +574,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13">
         <v>1</v>
       </c>
@@ -564,6 +585,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
       <c r="B14">
         <v>2</v>
       </c>
@@ -577,6 +601,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -618,6 +645,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
       <c r="B23">
         <v>3</v>
       </c>
@@ -631,7 +661,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>PRODUCT(SUM(A3:A23),3)</f>
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <f>PRODUCT(SUM(B3:B23),3)</f>
